--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="10290"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Страна</t>
   </si>
@@ -30,28 +30,16 @@
     <t>Россия</t>
   </si>
   <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
     <t>Санкт-Петербург</t>
   </si>
   <si>
-    <t>Май</t>
-  </si>
-  <si>
-    <t>Беларусь</t>
-  </si>
-  <si>
-    <t>Борисов</t>
+    <t>Февраль</t>
   </si>
   <si>
     <t>Украина</t>
   </si>
   <si>
-    <t>Днепр</t>
+    <t>Киев</t>
   </si>
 </sst>
 </file>
@@ -394,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,11 +401,8 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -425,58 +410,40 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <f>AVERAGE($C$2:$C$1048576)</f>
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1">
-        <f>AVERAGE($C$2:$C$1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <f>AVERAGE($C$2:$C$1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="G6" s="1">
-        <f>AVERAGE($C$2:$C$1048576)</f>
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Страна</t>
   </si>
@@ -24,15 +24,15 @@
     <t>Город</t>
   </si>
   <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
     <t>Январь</t>
   </si>
   <si>
-    <t>Россия</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург</t>
-  </si>
-  <si>
     <t>Февраль</t>
   </si>
   <si>
@@ -40,23 +40,17 @@
   </si>
   <si>
     <t>Киев</t>
+  </si>
+  <si>
+    <t>среднее значение температур</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,9 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,73 +375,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="E3">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
@@ -406,13 +406,13 @@
         <v>3</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
       <c r="E2">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -423,13 +423,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
@@ -406,13 +406,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>-15</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -423,13 +423,13 @@
         <v>7</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/TemperatureDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="6720"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Страна</t>
   </si>
@@ -36,13 +36,22 @@
     <t>Февраль</t>
   </si>
   <si>
+    <t>Март</t>
+  </si>
+  <si>
     <t>Украина</t>
   </si>
   <si>
-    <t>Киев</t>
-  </si>
-  <si>
-    <t>среднее значение температур</t>
+    <t>Одесса</t>
+  </si>
+  <si>
+    <t>Сербия</t>
+  </si>
+  <si>
+    <t>Лозница</t>
+  </si>
+  <si>
+    <t>Cреднее значение температур</t>
   </si>
 </sst>
 </file>
@@ -375,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,10 +404,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -406,30 +418,56 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="D2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>-22.5</v>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>-9</v>
+      </c>
+      <c r="D4">
+        <v>-12</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
